--- a/kit/excel/错误码.xlsx
+++ b/kit/excel/错误码.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>v1.0</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>FieldName</t>
+  </si>
+  <si>
     <t>int32</t>
   </si>
   <si>
@@ -43,7 +46,13 @@
     <t>描述</t>
   </si>
   <si>
+    <t>字段名</t>
+  </si>
+  <si>
     <t>账号密码不存在</t>
+  </si>
+  <si>
+    <t>ErrorCodeAccountNotFound</t>
   </si>
 </sst>
 </file>
@@ -982,15 +991,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -998,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1008,35 +1018,47 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>100001</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
